--- a/LubanTools/DesignerConfigs/Datas/S_声音相关/Sounds_Config.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/S_声音相关/Sounds_Config.xlsx
@@ -1,165 +1,275 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\GitHub\Deer_GameFramework_HuaTuo\LubanTools\DesignerConfigs\Datas\S_声音相关\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD13748-819E-43CC-84AC-AE73C116B46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25530" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sounds_Config" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>#desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound_name</t>
+  </si>
+  <si>
+    <t>sound_priority</t>
+  </si>
+  <si>
+    <t>sound_volume</t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>spatial_blend</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>##</t>
   </si>
   <si>
     <t>唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效名字</t>
+  </si>
+  <si>
+    <t>音效优先级</t>
+  </si>
+  <si>
+    <t>音量大小</t>
+  </si>
+  <si>
+    <t>是否循环</t>
+  </si>
+  <si>
+    <t>空间混合</t>
+  </si>
+  <si>
+    <t>最大距离</t>
   </si>
   <si>
     <t>登录流程bgm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound_priority</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效优先级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>音量大小</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound_volume</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>loop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否循环</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spatial_blend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>空间混合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>distance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大距离</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MusicSounds/bgm-login-0</t>
   </si>
   <si>
     <t>大厅bgm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MusicSounds/bgm-login-0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MusicSounds/bgm-main-0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##var</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主菜单背景音乐</t>
+  </si>
+  <si>
+    <t>Music/Menu_Music</t>
+  </si>
+  <si>
+    <t>游戏背景音乐</t>
+  </si>
+  <si>
+    <t>Music/Game_Music</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,12 +278,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -196,36 +486,303 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="14" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="14" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="60% - 着色 2" xfId="1" builtinId="36"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -274,7 +831,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -309,7 +866,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -483,135 +1040,130 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.55833333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="41.25" customWidth="1"/>
+    <col min="5" max="5" width="13.8833333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="9.55833333333333" customWidth="1"/>
+    <col min="8" max="8" width="12.775" customWidth="1"/>
+    <col min="9" max="9" width="9.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9">
       <c r="B4">
         <v>90100001</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -623,21 +1175,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9">
       <c r="B5">
         <v>90100002</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -649,15 +1201,67 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="2:9">
+      <c r="B6">
+        <v>10001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7">
+        <v>10101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>0.1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="10000000 角色技能音效_x000a_20000000 怪物技能音效_x000a_30000000 通用技能音效_x000a_40000000 场景音效_x000a_50000000 语音对话_x000a_60000000 UI音效_x000a_70000000 战斗提示_x000a_80000000 语音喊叫_x000a_90000000 背景音乐" sqref="B1:B1048576" xr:uid="{4A5C10AD-F804-422E-873B-0A9CAA7AC521}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="音效数量超出一定范围时，优先级低的不播放" sqref="E1:E1048576" xr:uid="{C23C3635-DB80-4640-9E3D-DC6A3F9A6787}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 2D_x000a_1 3D" sqref="H1:H1048576" xr:uid="{AFF89D4D-B67F-4718-A884-E42D5D3CEBA2}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="音量大小" sqref="F1:F1048576" xr:uid="{67254FED-834F-4358-BC92-56AA5C3C2A53}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="10000000 角色技能音效&#10;20000000 怪物技能音效&#10;30000000 通用技能音效&#10;40000000 场景音效&#10;50000000 语音对话&#10;60000000 UI音效&#10;70000000 战斗提示&#10;80000000 语音喊叫&#10;90000000 背景音乐" sqref="B6 B1:B5 B7:B1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="音效数量超出一定范围时，优先级低的不播放" sqref="E6 E7 E1:E5 E8:E1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="音量大小" sqref="F6 F7 F1:F5 F8:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 2D&#10;1 3D" sqref="H6 H7 H1:H5 H8:H1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>